--- a/Raw_Data/Helper_Lipid_Param.xlsx
+++ b/Raw_Data/Helper_Lipid_Param.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leo\source\repos\ML_LNP\ML_LNP\Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF3682A-1B29-445A-A765-81C2E9215D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99CCB98-5097-475E-A0B0-8CDDACE4C356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Helper_lipid</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>DSPC</t>
+  </si>
+  <si>
+    <t>Helper_MW</t>
   </si>
 </sst>
 </file>
@@ -468,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -482,9 +485,10 @@
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,8 +516,11 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -541,8 +548,11 @@
       <c r="I2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>663.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -570,8 +580,11 @@
       <c r="I3" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -599,8 +612,11 @@
       <c r="I4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -628,8 +644,11 @@
       <c r="I5" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5">
+        <v>790.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -657,8 +676,11 @@
       <c r="I6" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6">
+        <v>592.79999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
@@ -686,8 +708,11 @@
       <c r="I7" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7">
+        <v>777.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -716,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -745,7 +770,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -774,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -803,7 +828,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>17</v>
       </c>
@@ -832,7 +857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>18</v>
       </c>
